--- a/file/stock.xlsx
+++ b/file/stock.xlsx
@@ -1,74 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69BC99-BB6C-4796-B459-22C777D204D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3075" windowWidth="23835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="23835" xWindow="2160" yWindow="3075"/>
   </bookViews>
   <sheets>
-    <sheet name="600223" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet9" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600223" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet9" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>详情</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>{'当前': '9.88', '今开': '9.66', '最高': '10.47', '昨收': '9.59', '最低': '9.21'}</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
-  </si>
-  <si>
-    <t>2020-01-15</t>
-  </si>
-  <si>
-    <t>{'当前': '10.12', '今开': '10.35', '最高': '10.58', '昨收': '10.45', '最低': '9.86'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,30 +52,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -373,117 +332,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="59.625" style="2" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="18.5"/>
+    <col customWidth="1" max="2" min="2" style="4" width="59.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
+    <row r="1">
+      <c r="A1" s="3" t="n">
         <v>60023</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'当前': '9.88', '今开': '9.66', '最高': '10.47', '昨收': '9.59', '最低': '9.21'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{'当前': '9.88', '今开': '9.66', '最高': '10.47', '昨收': '9.59', '最低': '9.21'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{'当前': '15.75', '今开': '15.82', '最高': '15.96', '昨收': '15.87', '最低': '15.7'}</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="66.25" style="2" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="15.625"/>
+    <col customWidth="1" max="2" min="2" style="4" width="66.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
+    <row r="1">
+      <c r="A1" s="3" t="n">
         <v>60023</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/file/stock.xlsx
+++ b/file/stock.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="23835" xWindow="2160" yWindow="3075"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="23835" xWindow="4965" yWindow="3225"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600223" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="601698" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet9" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -337,7 +337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -350,8 +350,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="n">
-        <v>60023</v>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>60023鲁商发展</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -393,12 +395,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'当前': '15.75', '今开': '15.82', '最高': '15.96', '昨收': '15.87', '最低': '15.7'}</t>
+          <t>{'当前': '10.63', '今开': '10.78', '最高': '11.43', '昨收': '10.68', '最低': '10.4'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'当前': '9.11', '今开': '8.89', '最高': '9.25', '昨收': '8.99', '最低': '8.75'}</t>
         </is>
       </c>
     </row>
@@ -420,7 +434,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -430,8 +444,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="n">
-        <v>60023</v>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>601698中国卫通</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -443,6 +459,18 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>详情</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'当前': '19.26', '今开': '19.50', '最高': '19.79', '昨收': '20.13', '最低': '18.86'}</t>
         </is>
       </c>
     </row>

--- a/file/stock.xlsx
+++ b/file/stock.xlsx
@@ -1,42 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBDE2DE-C3D4-4394-830C-962379900CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="23835" xWindow="4965" yWindow="3225"/>
+    <workbookView xWindow="-3195" yWindow="4650" windowWidth="25230" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="600223" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="601698" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet9" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="600223" sheetId="1" r:id="rId1"/>
+    <sheet name="601698" sheetId="2" r:id="rId2"/>
+    <sheet name="000955" sheetId="3" r:id="rId3"/>
+    <sheet name="000009" sheetId="4" r:id="rId4"/>
+    <sheet name="002467" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+  <si>
+    <t>60023鲁商发展</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>{'当前': '9.88', '今开': '9.66', '最高': '10.47', '昨收': '9.59', '最低': '9.21'}</t>
+  </si>
+  <si>
+    <t>2020-01-11</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>{'当前': '10.63', '今开': '10.78', '最高': '11.43', '昨收': '10.68', '最低': '10.4'}</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>{'当前': '9.11', '今开': '8.89', '最高': '9.25', '昨收': '8.99', '最低': '8.75'}</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
+    <t>{'当前': '8.38', '今开': '8.90', '最高': '8.97', '昨收': '9.11', '最低': '8.2', '涨跌百分比': '-8.01%'}</t>
+  </si>
+  <si>
+    <t>2020-02-26</t>
+  </si>
+  <si>
+    <t>{'当前': '8.13', '今开': '8.30', '最高': '8.53', '昨收': '8.38', '最低': '8.09', '涨跌百分比': '-2.98%'}</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>601698中国卫通</t>
+  </si>
+  <si>
+    <t>{'当前': '19.26', '今开': '19.50', '最高': '19.79', '昨收': '20.13', '最低': '18.86'}</t>
+  </si>
+  <si>
+    <t>{'当前': '19.69', '今开': '18.50', '最高': '19.94', '昨收': '19.26', '最低': '18.49'}</t>
+  </si>
+  <si>
+    <t>{'当前': '18.24', '今开': '19.06', '最高': '19.45', '昨收': '19.69', '最低': '17.91', '涨跌百分比': '-7.36%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '16.71', '最高': '17.24', '最低': '16.26', '今开': '16.90', '昨收': '17.78', '涨跌幅度': '-6.018%'}</t>
+  </si>
+  <si>
+    <t>000955欣龙控股</t>
+  </si>
+  <si>
+    <t>{'当前': '10.90', '今开': '11.09', '最高': '11.62', '昨收': '10.56', '最低': '9.66', '涨跌百分比': '3.22%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '11.32', '最高': '11.32', '最低': '10.52', '今开': '10.55', '昨收': '10.29', '涨跌幅度': '10.010%'}</t>
+  </si>
+  <si>
+    <t>000955中国宝安</t>
+  </si>
+  <si>
+    <t>{'当前': '7.41', '最高': '7.85', '最低': '7.41', '今开': '7.66', '昨收': '8.23', '涨跌幅度': '-9.964%'}</t>
+  </si>
+  <si>
+    <t>002467二六三</t>
+  </si>
+  <si>
+    <t>{'当前': '8.51', '最高': '8.81', '最低': '8.05', '今开': '8.13', '昨收': '8.47', '涨跌幅度': '0.472%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '7.71', '最高': '8.17', '最低': '7.69', '今开': '7.69', '昨收': '7.98', '涨跌幅度': '-3.384%'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,21 +149,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -332,174 +441,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="4" width="59.625"/>
+    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>60023鲁商发展</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>详情</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020-01-10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>{'当前': '9.88', '今开': '9.66', '最高': '10.47', '昨收': '9.59', '最低': '9.21'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020-01-11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>{'当前': '9.88', '今开': '9.66', '最高': '10.47', '昨收': '9.59', '最低': '9.21'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2020-01-19</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>{'当前': '10.63', '今开': '10.78', '最高': '11.43', '昨收': '10.68', '最低': '10.4'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2020-02-24</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>{'当前': '9.11', '今开': '8.89', '最高': '9.25', '昨收': '8.99', '最低': '8.75'}</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="15.625"/>
-    <col customWidth="1" max="2" min="2" style="4" width="66.25"/>
+    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="78.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>601698中国卫通</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>详情</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2020-02-24</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>{'当前': '19.26', '今开': '19.50', '最高': '19.79', '昨收': '20.13', '最低': '18.86'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="74.875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.25" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.25" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/file/stock.xlsx
+++ b/file/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBDE2DE-C3D4-4394-830C-962379900CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB0EAB-50E6-4DD6-96B7-D765CDCC48BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="4650" windowWidth="25230" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="600223" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>60023鲁商发展</t>
   </si>
@@ -71,6 +71,21 @@
     <t>2020-02-28</t>
   </si>
   <si>
+    <t>{'当前': '7.71', '最高': '8.17', '最低': '7.69', '今开': '7.69', '昨收': '7.98', '涨跌幅度': '-3.384%'}</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>{'当前': '7.33', '最高': '7.51', '最低': '7.00', '今开': '7.00', '昨收': '7.66', '涨跌幅度': '-4.308%'}</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>{'当前': '6.89', '最高': '7.10', '最低': '6.40', '今开': '6.82', '昨收': '6.84', '涨跌幅度': '0.731%'}</t>
+  </si>
+  <si>
     <t>601698中国卫通</t>
   </si>
   <si>
@@ -86,6 +101,12 @@
     <t>{'当前': '16.71', '最高': '17.24', '最低': '16.26', '今开': '16.90', '昨收': '17.78', '涨跌幅度': '-6.018%'}</t>
   </si>
   <si>
+    <t>{'当前': '17.27', '最高': '17.65', '最低': '16.20', '今开': '16.20', '昨收': '17.48', '涨跌幅度': '-1.201%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '15.40', '最高': '16.02', '最低': '14.63', '今开': '15.68', '昨收': '15.63', '涨跌幅度': '-1.472%'}</t>
+  </si>
+  <si>
     <t>000955欣龙控股</t>
   </si>
   <si>
@@ -95,20 +116,34 @@
     <t>{'当前': '11.32', '最高': '11.32', '最低': '10.52', '今开': '10.55', '昨收': '10.29', '涨跌幅度': '10.010%'}</t>
   </si>
   <si>
+    <t>{'当前': '11.28', '最高': '11.96', '最低': '11.28', '今开': '11.52', '昨收': '12.53', '涨跌幅度': '-9.976%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '10.61', '最高': '11.20', '最低': '10.59', '今开': '11.00', '昨收': '11.77', '涨跌幅度': '-9.856%'}</t>
+  </si>
+  <si>
     <t>000955中国宝安</t>
   </si>
   <si>
     <t>{'当前': '7.41', '最高': '7.85', '最低': '7.41', '今开': '7.66', '昨收': '8.23', '涨跌幅度': '-9.964%'}</t>
   </si>
   <si>
+    <t>{'当前': '6.88', '最高': '7.06', '最低': '6.39', '今开': '6.50', '昨收': '6.98', '涨跌幅度': '-1.433%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '6.35', '最高': '6.55', '最低': '6.10', '今开': '6.41', '昨收': '6.36', '涨跌幅度': '-0.157%'}</t>
+  </si>
+  <si>
     <t>002467二六三</t>
   </si>
   <si>
     <t>{'当前': '8.51', '最高': '8.81', '最低': '8.05', '今开': '8.13', '昨收': '8.47', '涨跌幅度': '0.472%'}</t>
   </si>
   <si>
-    <t>{'当前': '7.71', '最高': '8.17', '最低': '7.69', '今开': '7.69', '昨收': '7.98', '涨跌幅度': '-3.384%'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{'当前': '7.28', '最高': '7.44', '最低': '6.90', '今开': '7.13', '昨收': '7.48', '涨跌幅度': '-2.674%'}</t>
+  </si>
+  <si>
+    <t>{'当前': '6.81', '最高': '7.10', '最低': '6.48', '今开': '6.89', '昨收': '6.92', '涨跌幅度': '-1.590%'}</t>
   </si>
 </sst>
 </file>
@@ -442,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,7 +556,23 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -536,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -567,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -583,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,7 +642,23 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -637,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,7 +712,23 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -654,15 +737,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,7 +757,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -690,7 +774,23 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +804,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,7 +818,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -735,7 +835,23 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/file/stock.xlsx
+++ b/file/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB0EAB-50E6-4DD6-96B7-D765CDCC48BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6358B-60A0-4425-BF1F-1121EF61B0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="12990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="600223" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="000955" sheetId="3" r:id="rId3"/>
     <sheet name="000009" sheetId="4" r:id="rId4"/>
     <sheet name="002467" sheetId="5" r:id="rId5"/>
+    <sheet name="000652" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>60023鲁商发展</t>
   </si>
@@ -83,7 +84,7 @@
     <t>2020-03-17</t>
   </si>
   <si>
-    <t>{'当前': '6.89', '最高': '7.10', '最低': '6.40', '今开': '6.82', '昨收': '6.84', '涨跌幅度': '0.731%'}</t>
+    <t>{'当前': '7.02', '最高': '7.14', '最低': '6.40', '今开': '6.82', '昨收': '6.84', '涨跌幅度': '2.632%'}</t>
   </si>
   <si>
     <t>601698中国卫通</t>
@@ -104,7 +105,7 @@
     <t>{'当前': '17.27', '最高': '17.65', '最低': '16.20', '今开': '16.20', '昨收': '17.48', '涨跌幅度': '-1.201%'}</t>
   </si>
   <si>
-    <t>{'当前': '15.40', '最高': '16.02', '最低': '14.63', '今开': '15.68', '昨收': '15.63', '涨跌幅度': '-1.472%'}</t>
+    <t>{'当前': '15.43', '最高': '16.02', '最低': '14.63', '今开': '15.68', '昨收': '15.63', '涨跌幅度': '-1.280%'}</t>
   </si>
   <si>
     <t>000955欣龙控股</t>
@@ -119,7 +120,7 @@
     <t>{'当前': '11.28', '最高': '11.96', '最低': '11.28', '今开': '11.52', '昨收': '12.53', '涨跌幅度': '-9.976%'}</t>
   </si>
   <si>
-    <t>{'当前': '10.61', '最高': '11.20', '最低': '10.59', '今开': '11.00', '昨收': '11.77', '涨跌幅度': '-9.856%'}</t>
+    <t>{'当前': '10.71', '最高': '11.20', '最低': '10.59', '今开': '11.00', '昨收': '11.77', '涨跌幅度': '-9.006%'}</t>
   </si>
   <si>
     <t>000955中国宝安</t>
@@ -131,7 +132,7 @@
     <t>{'当前': '6.88', '最高': '7.06', '最低': '6.39', '今开': '6.50', '昨收': '6.98', '涨跌幅度': '-1.433%'}</t>
   </si>
   <si>
-    <t>{'当前': '6.35', '最高': '6.55', '最低': '6.10', '今开': '6.41', '昨收': '6.36', '涨跌幅度': '-0.157%'}</t>
+    <t>{'当前': '6.40', '最高': '6.55', '最低': '6.10', '今开': '6.41', '昨收': '6.36', '涨跌幅度': '0.629%'}</t>
   </si>
   <si>
     <t>002467二六三</t>
@@ -143,7 +144,13 @@
     <t>{'当前': '7.28', '最高': '7.44', '最低': '6.90', '今开': '7.13', '昨收': '7.48', '涨跌幅度': '-2.674%'}</t>
   </si>
   <si>
-    <t>{'当前': '6.81', '最高': '7.10', '最低': '6.48', '今开': '6.89', '昨收': '6.92', '涨跌幅度': '-1.590%'}</t>
+    <t>{'当前': '6.85', '最高': '7.10', '最低': '6.48', '今开': '6.89', '昨收': '6.92', '涨跌幅度': '-1.012%'}</t>
+  </si>
+  <si>
+    <t>000652</t>
+  </si>
+  <si>
+    <t>{'当前': '11.42', '最高': '12.10', '最低': '10.94', '今开': '11.59', '昨收': '12.14', '涨跌幅度': '-5.931%'}</t>
   </si>
 </sst>
 </file>
@@ -479,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,10 +575,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,7 +683,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,7 +814,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,4 +868,49 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="76.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/file/stock.xlsx
+++ b/file/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\python\UiAutomation\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6358B-60A0-4425-BF1F-1121EF61B0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E078384-3F78-4FB0-BE99-BB4700F6B487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3210" yWindow="2235" windowWidth="25230" windowHeight="12990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,10 +147,11 @@
     <t>{'当前': '6.85', '最高': '7.10', '最低': '6.48', '今开': '6.89', '昨收': '6.92', '涨跌幅度': '-1.012%'}</t>
   </si>
   <si>
-    <t>000652</t>
-  </si>
-  <si>
     <t>{'当前': '11.42', '最高': '12.10', '最低': '10.94', '今开': '11.59', '昨收': '12.14', '涨跌幅度': '-5.931%'}</t>
+  </si>
+  <si>
+    <t>000652泰达股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -875,7 +876,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,7 +887,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -903,7 +904,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
